--- a/src/main/resources/documents/DUAN_010_04-04-31_MB.xlsx
+++ b/src/main/resources/documents/DUAN_010_04-04-31_MB.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F8207CE7-4A1A-4580-83D6-941D34600566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:801_{60C9B3DE-65C5-4C82-A61E-958F31D6FC59}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19560" windowHeight="11820" xr2:uid="{7D0F44A8-F3C9-4ED2-89D3-E9DDCCF8111C}"/>
+    <workbookView activeTab="4" windowHeight="11820" windowWidth="19530" xWindow="390" xr2:uid="{7D0F44A8-F3C9-4ED2-89D3-E9DDCCF8111C}" yWindow="390"/>
   </bookViews>
   <sheets>
-    <sheet name="METADATA" sheetId="1" r:id="rId1"/>
-    <sheet name="MBAD" sheetId="2" r:id="rId2"/>
-    <sheet name="MBAK" sheetId="4" r:id="rId3"/>
-    <sheet name="MBTOY" sheetId="3" r:id="rId4"/>
-    <sheet name="MBAG" sheetId="5" r:id="rId5"/>
-    <sheet name="MBINS_withoutHeader" sheetId="6" r:id="rId6"/>
-    <sheet name="MBGE_withoutHeader" sheetId="7" r:id="rId7"/>
+    <sheet name="METADATA" r:id="rId1" sheetId="1"/>
+    <sheet name="MBAD" r:id="rId2" sheetId="2"/>
+    <sheet name="MBAK" r:id="rId3" sheetId="4"/>
+    <sheet name="MBTOY" r:id="rId4" sheetId="3"/>
+    <sheet name="MBAG" r:id="rId5" sheetId="5"/>
+    <sheet name="EXTRASHEET" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L11"/>
+  <oleSize ref="A1:N12"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -140,7 +139,7 @@
     <t>MATI</t>
   </si>
   <si>
-    <t>META SBXBJ,,12,DUAN,68877,2878900,928279820,OrderEvents_01.abc.df@0000040@@**shopping</t>
+    <t>META SBXBJ,,12,DUAN,68877,2878900,928279820,OrderEvents_01.abc.df@0000040@@**shoppingreport*Detailed description of all the orders*,980,898</t>
   </si>
   <si>
     <t>NEW</t>
@@ -327,6 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +361,16 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -374,22 +384,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -406,10 +417,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -444,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -496,7 +507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -607,21 +618,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -638,7 +649,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -690,67 +701,67 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD04D98A-9843-404F-AFDA-277CB277DB6A}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD04D98A-9843-404F-AFDA-277CB277DB6A}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="C2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -758,41 +769,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A770C-7146-42AB-B036-B161CBF36BC1}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98A770C-7146-42AB-B036-B161CBF36BC1}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -897,13 +908,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF3A304-6A92-4ABF-BBE3-DBD6E21F0F4C}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF3A304-6A92-4ABF-BBE3-DBD6E21F0F4C}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -997,13 +1008,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1BA02A-C10C-49E7-AF7B-5B2D70C5E274}">
-  <dimension ref="A1:R11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1BA02A-C10C-49E7-AF7B-5B2D70C5E274}">
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -1011,7 +1022,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -1046,7 +1057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,14 +1110,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="5">
         <v>40</v>
       </c>
       <c r="E3" t="s">
@@ -1152,14 +1163,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="5">
         <v>40</v>
       </c>
       <c r="E4" t="s">
@@ -1199,14 +1210,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="5">
         <v>40</v>
       </c>
       <c r="E5" t="s">
@@ -1252,14 +1263,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="5">
         <v>40</v>
       </c>
       <c r="E6" t="s">
@@ -1305,14 +1316,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="5">
         <v>40</v>
       </c>
       <c r="E7" t="s">
@@ -1352,14 +1363,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" t="s">
         <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="5">
         <v>40</v>
       </c>
       <c r="E8" t="s">
@@ -1405,14 +1416,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="5">
         <v>40</v>
       </c>
       <c r="E9" t="s">
@@ -1458,14 +1469,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="5">
         <v>40</v>
       </c>
       <c r="E10" t="s">
@@ -1505,14 +1516,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="5">
         <v>40</v>
       </c>
       <c r="E11" t="s">
@@ -1560,15 +1571,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEA848D-7BDB-4C84-AF2F-08A4ABB5AB24}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEA848D-7BDB-4C84-AF2F-08A4ABB5AB24}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -1657,19 +1668,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B2:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1704,7 +1715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -1739,7 +1750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -1774,7 +1785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -1809,7 +1820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -1844,7 +1855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -1879,7 +1890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -1914,336 +1925,12 @@
         <v>43</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:P10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="9">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -2258,33 +1945,39 @@
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -2299,28 +1992,333 @@
         <v>40</v>
       </c>
       <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
         <v>91</v>
       </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
         <v>92</v>
       </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
         <v>93</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N12" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>